--- a/Christi - Data Binding.xlsx
+++ b/Christi - Data Binding.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\LearningManagementWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814E7F37-A66F-4A26-8CFD-249E5B2AFB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A68EDA-0204-4FFA-8277-9A5A99E08520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
     <sheet name="next page" sheetId="5" r:id="rId2"/>
     <sheet name="lihat modul" sheetId="2" r:id="rId3"/>
     <sheet name="materi belajar" sheetId="4" r:id="rId4"/>
-    <sheet name="review" sheetId="3" r:id="rId5"/>
+    <sheet name="view review" sheetId="3" r:id="rId5"/>
     <sheet name="new slider" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="edit slider" sheetId="7" r:id="rId7"/>
+    <sheet name="delete slider" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>search module</t>
   </si>
@@ -83,9 +85,6 @@
     <t>NEOP AAV</t>
   </si>
   <si>
-    <t>review empty</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -111,13 +110,76 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>nama_modul</t>
+  </si>
+  <si>
+    <t>nama_materi</t>
+  </si>
+  <si>
+    <t>sub_materi</t>
+  </si>
+  <si>
+    <t>Post-Test</t>
+  </si>
+  <si>
+    <t>Bagaimana Proses AAV ?</t>
+  </si>
+  <si>
+    <t>Alur Komunikasi AAV</t>
+  </si>
+  <si>
+    <t>NEOP ARRO</t>
+  </si>
+  <si>
+    <t>Pre-Test</t>
+  </si>
+  <si>
+    <t>nama slider</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>img slider</t>
+  </si>
+  <si>
+    <t>edit all</t>
+  </si>
+  <si>
+    <t>New Slider</t>
+  </si>
+  <si>
+    <t>https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/#/onlineLearningDetail?modulID=8</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\Cover Modul - Welcoming Kit.png</t>
+  </si>
+  <si>
+    <t>erase slider</t>
+  </si>
+  <si>
+    <t>erase url</t>
+  </si>
+  <si>
+    <t>cari slider</t>
+  </si>
+  <si>
+    <t>view review by</t>
+  </si>
+  <si>
+    <t>IDZNI ADLINA SYARAFINA DJATNIKA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +191,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,9 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,12 +595,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EBCB07-6B4E-4DCC-A2ED-2A237A435B8A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -530,7 +640,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -595,44 +705,107 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9802280-7071-47D4-AA4D-EEA7DD9C2C97}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -640,27 +813,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7172DBA-6075-466A-AC8F-92175A2CE995}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -682,9 +855,6 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -695,6 +865,12 @@
       </c>
       <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -706,30 +882,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F05573-A5E1-4E86-8A4F-4475CD26098F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="83.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="97.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -737,16 +913,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -754,10 +930,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -768,16 +944,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -785,16 +961,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -812,6 +988,189 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4451098-F6EF-4A84-8590-53E22A167F58}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" location="/onlineLearningDetail?modulID=8" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=8" xr:uid="{EEF54904-A504-4243-8B70-725AD6F75F1F}"/>
+    <hyperlink ref="D8" r:id="rId2" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{8B499E9D-5E6A-48D5-9CD4-5DFB57756DF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC65C5AD-3475-4492-97A7-C04D1EE102F1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C7130B-0321-450D-9D2E-9CBC564FD833}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Christi - Data Binding.xlsx
+++ b/Christi - Data Binding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\LearningManagementWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A68EDA-0204-4FFA-8277-9A5A99E08520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F70AFFA-D65E-4626-81A2-8EFD266AF761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="new slider" sheetId="6" r:id="rId6"/>
     <sheet name="edit slider" sheetId="7" r:id="rId7"/>
     <sheet name="delete slider" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="upload quiz" sheetId="9" r:id="rId9"/>
+    <sheet name="upload pretest-posttest" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
   <si>
     <t>search module</t>
   </si>
@@ -88,15 +89,9 @@
     <t>new</t>
   </si>
   <si>
-    <t>nama_slider</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
-    <t>img_slider</t>
-  </si>
-  <si>
     <t>https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/#/onlineLearningDetail?modulID=6</t>
   </si>
   <si>
@@ -109,9 +104,6 @@
     <t>upload</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>nama_modul</t>
   </si>
   <si>
@@ -148,31 +140,94 @@
     <t>img slider</t>
   </si>
   <si>
-    <t>edit all</t>
-  </si>
-  <si>
-    <t>New Slider</t>
-  </si>
-  <si>
-    <t>https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/#/onlineLearningDetail?modulID=8</t>
-  </si>
-  <si>
     <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\Cover Modul - Welcoming Kit.png</t>
   </si>
   <si>
-    <t>erase slider</t>
-  </si>
-  <si>
-    <t>erase url</t>
-  </si>
-  <si>
-    <t>cari slider</t>
-  </si>
-  <si>
     <t>view review by</t>
   </si>
   <si>
     <t>IDZNI ADLINA SYARAFINA DJATNIKA</t>
+  </si>
+  <si>
+    <t>123456789000123456789123456789000123456789</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\Aristotles.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max image size </t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>nama slider baru</t>
+  </si>
+  <si>
+    <t>url slider baru</t>
+  </si>
+  <si>
+    <t>img slider baru</t>
+  </si>
+  <si>
+    <t>find slider</t>
+  </si>
+  <si>
+    <t>Brand New Slider</t>
+  </si>
+  <si>
+    <t>erase nama slider</t>
+  </si>
+  <si>
+    <t>change all</t>
+  </si>
+  <si>
+    <t>max character</t>
+  </si>
+  <si>
+    <t>max image size</t>
+  </si>
+  <si>
+    <t>img_file_invalid</t>
+  </si>
+  <si>
+    <t>123456789000123456789123456789</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\01. What Business Are we in.pdf</t>
+  </si>
+  <si>
+    <t>erase url slider</t>
+  </si>
+  <si>
+    <t>file upload</t>
+  </si>
+  <si>
+    <t>file size to big</t>
+  </si>
+  <si>
+    <t>wrong file type</t>
+  </si>
+  <si>
+    <t>right file upload</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\WhatsApp Image 2020-02-20 at 08.37.34.jpeg</t>
+  </si>
+  <si>
+    <t>error, expected file csv</t>
+  </si>
+  <si>
+    <t>Some header missing or invalid</t>
+  </si>
+  <si>
+    <t>Success insert Pre-Test/Post-Test</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\Pre-Test_LEMON.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\Quiz Upload.csv</t>
   </si>
 </sst>
 </file>
@@ -210,18 +265,62 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -231,13 +330,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -245,6 +367,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6D6D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -593,6 +720,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F5E2F0-3624-4CCF-9837-1CA71F76DF0D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EBCB07-6B4E-4DCC-A2ED-2A237A435B8A}">
   <dimension ref="A1:B3"/>
@@ -608,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -720,16 +911,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -757,10 +948,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -774,10 +965,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -785,16 +976,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -813,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7172DBA-6075-466A-AC8F-92175A2CE995}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -824,16 +1015,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -866,8 +1057,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -880,250 +1071,513 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F05573-A5E1-4E86-8A4F-4475CD26098F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{63FBA9E4-A565-49EE-951E-6DE9BBFB21C0}"/>
+    <hyperlink ref="B4" r:id="rId2" location="/onlineLearningDetail?modulID=6" xr:uid="{AEFCADBD-72DC-4052-8DA3-A515192E9596}"/>
+    <hyperlink ref="B2" r:id="rId3" location="/onlineLearningDetail?modulID=6" xr:uid="{A626AE1E-95A5-416A-9DD7-63A82267E1B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4451098-F6EF-4A84-8590-53E22A167F58}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{103ADBC2-CC44-4B24-AE50-FBD0FD86F894}"/>
-    <hyperlink ref="B3" r:id="rId2" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{0E254289-9E72-4749-BF2E-A1610DB7DC78}"/>
-    <hyperlink ref="B5" r:id="rId3" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{63FBA9E4-A565-49EE-951E-6DE9BBFB21C0}"/>
+    <hyperlink ref="E9" r:id="rId1" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{8B499E9D-5E6A-48D5-9CD4-5DFB57756DF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4451098-F6EF-4A84-8590-53E22A167F58}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" location="/onlineLearningDetail?modulID=8" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=8" xr:uid="{EEF54904-A504-4243-8B70-725AD6F75F1F}"/>
-    <hyperlink ref="D8" r:id="rId2" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{8B499E9D-5E6A-48D5-9CD4-5DFB57756DF0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1132,7 +1586,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1150,7 +1604,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1158,7 +1612,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1171,12 +1625,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C7130B-0321-450D-9D2E-9CBC564FD833}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Christi - Data Binding.xlsx
+++ b/Christi - Data Binding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\LearningManagementWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F70AFFA-D65E-4626-81A2-8EFD266AF761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1003B111-2135-4719-9E03-965692EED828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="materi belajar" sheetId="4" r:id="rId4"/>
     <sheet name="view review" sheetId="3" r:id="rId5"/>
     <sheet name="new slider" sheetId="6" r:id="rId6"/>
-    <sheet name="edit slider" sheetId="7" r:id="rId7"/>
+    <sheet name="edit slider" sheetId="11" r:id="rId7"/>
     <sheet name="delete slider" sheetId="8" r:id="rId8"/>
     <sheet name="upload quiz" sheetId="9" r:id="rId9"/>
     <sheet name="upload pretest-posttest" sheetId="10" r:id="rId10"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="68">
   <si>
     <t>search module</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Brand New Slider</t>
   </si>
   <si>
-    <t>erase nama slider</t>
-  </si>
-  <si>
     <t>change all</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\01. What Business Are we in.pdf</t>
   </si>
   <si>
-    <t>erase url slider</t>
-  </si>
-  <si>
     <t>file upload</t>
   </si>
   <si>
@@ -228,13 +222,37 @@
   </si>
   <si>
     <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\Quiz Upload.csv</t>
+  </si>
+  <si>
+    <t>https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/#/onlineLearningDetail?modulID=8</t>
+  </si>
+  <si>
+    <t>WELCOMING KNOWLEDGE</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\WhatsApp Image 2020-02-20 at 08.37.35.jpeg</t>
+  </si>
+  <si>
+    <t>url slider</t>
+  </si>
+  <si>
+    <t>NEOP SERVICE</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>NEOP SALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +282,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,13 +305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,17 +367,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,13 +384,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -369,6 +414,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF339933"/>
       <color rgb="FFFF6D6D"/>
     </mruColors>
   </colors>
@@ -739,7 +785,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -747,7 +793,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -758,10 +804,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -769,10 +815,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1073,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F05573-A5E1-4E86-8A4F-4475CD26098F}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1088,199 +1134,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1296,288 +1342,406 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4451098-F6EF-4A84-8590-53E22A167F58}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F93B3-0753-45B9-80E1-212386B213EB}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="K1" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>49</v>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>35</v>
+      <c r="E4" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="C11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>4</v>
+      <c r="I11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{8B499E9D-5E6A-48D5-9CD4-5DFB57756DF0}"/>
+    <hyperlink ref="E4" r:id="rId1" location="/onlineLearningDetail?modulID=8" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=8" xr:uid="{A583DFF4-7EF1-4152-84E3-7327397AD532}"/>
+    <hyperlink ref="E2" r:id="rId2" location="/onlineLearningDetail?modulID=6" display="https://appsrv1.deltadatamandiri.com/ACC_LMS_WEB/ - /onlineLearningDetail?modulID=6" xr:uid="{C3099B9E-5829-42B8-B41D-4769D208C4AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1585,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC65C5AD-3475-4492-97A7-C04D1EE102F1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1768,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1642,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1650,7 +1814,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -1661,10 +1825,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1672,10 +1836,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>

--- a/Christi - Data Binding.xlsx
+++ b/Christi - Data Binding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\LearningManagementWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1003B111-2135-4719-9E03-965692EED828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA4C9E-98C7-45A2-893E-CDBE427EA3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
   <si>
     <t>search module</t>
   </si>
@@ -212,9 +212,6 @@
     <t>error, expected file csv</t>
   </si>
   <si>
-    <t>Some header missing or invalid</t>
-  </si>
-  <si>
     <t>Success insert Pre-Test/Post-Test</t>
   </si>
   <si>
@@ -246,6 +243,12 @@
   </si>
   <si>
     <t>NEOP SALES</t>
+  </si>
+  <si>
+    <t>file size exceeded limit</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\big file.csv</t>
   </si>
 </sst>
 </file>
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F5E2F0-3624-4CCF-9837-1CA71F76DF0D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,10 +807,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -815,10 +818,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1430,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1444,7 +1447,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1461,22 +1464,22 @@
         <v>4</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
@@ -1492,12 +1495,12 @@
         <v>4</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -1508,7 +1511,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>9</v>
@@ -1523,12 +1526,12 @@
         <v>4</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>7</v>
@@ -1554,12 +1557,12 @@
         <v>3</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -1585,18 +1588,18 @@
         <v>3</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="16"/>
@@ -1614,18 +1617,18 @@
         <v>3</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="16" t="s">
@@ -1645,12 +1648,12 @@
         <v>3</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1674,12 +1677,12 @@
         <v>3</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>7</v>
@@ -1705,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1732,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC65C5AD-3475-4492-97A7-C04D1EE102F1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1839,7 +1842,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>

--- a/Christi - Data Binding.xlsx
+++ b/Christi - Data Binding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\LearningManagementWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA4C9E-98C7-45A2-893E-CDBE427EA3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0B0AB-763F-4F1F-B3DA-715EBC4DBC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" firstSheet="5" activeTab="11" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="delete slider" sheetId="8" r:id="rId8"/>
     <sheet name="upload quiz" sheetId="9" r:id="rId9"/>
     <sheet name="upload pretest-posttest" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
+    <sheet name="delete test" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="111">
   <si>
     <t>search module</t>
   </si>
@@ -249,6 +251,132 @@
   </si>
   <si>
     <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\big file.csv</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>1m27s</t>
+  </si>
+  <si>
+    <t>1m 2s</t>
+  </si>
+  <si>
+    <t>59s</t>
+  </si>
+  <si>
+    <t>1m 5s</t>
+  </si>
+  <si>
+    <t>1m 11s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time </t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>1m38s</t>
+  </si>
+  <si>
+    <t>1m 10s</t>
+  </si>
+  <si>
+    <t>1m 19s</t>
+  </si>
+  <si>
+    <t>1m2s</t>
+  </si>
+  <si>
+    <t>1m 9s</t>
+  </si>
+  <si>
+    <t>1m 24s</t>
+  </si>
+  <si>
+    <t>34s</t>
+  </si>
+  <si>
+    <t>54s</t>
+  </si>
+  <si>
+    <t>56s</t>
+  </si>
+  <si>
+    <t>1m11s</t>
+  </si>
+  <si>
+    <t>1m3s</t>
+  </si>
+  <si>
+    <t>53s</t>
+  </si>
+  <si>
+    <t>1m6s</t>
+  </si>
+  <si>
+    <t>1m16s</t>
+  </si>
+  <si>
+    <t>51s</t>
+  </si>
+  <si>
+    <t>50s</t>
+  </si>
+  <si>
+    <t>1m4s</t>
+  </si>
+  <si>
+    <t>1m10s</t>
+  </si>
+  <si>
+    <t>41s</t>
+  </si>
+  <si>
+    <t>57s</t>
+  </si>
+  <si>
+    <t>52s</t>
+  </si>
+  <si>
+    <t>1m18s</t>
+  </si>
+  <si>
+    <t>55s</t>
+  </si>
+  <si>
+    <t>1m 7s</t>
+  </si>
+  <si>
+    <t>searchID</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>kondisi</t>
   </si>
 </sst>
 </file>
@@ -370,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -394,8 +522,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,9 +531,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEBD06-F112-4A90-954F-2B4BBE3B5C42}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,28 +869,37 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +909,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F5E2F0-3624-4CCF-9837-1CA71F76DF0D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +921,7 @@
     <col min="2" max="2" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -793,8 +931,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -804,8 +945,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -815,8 +959,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -825,6 +972,9 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -833,12 +983,749 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96849A86-0988-4C7E-8737-F2C0BFB50414}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>14426</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>11666</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F20AF2B-39BE-4463-B573-4D2A75D5EAFA}">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" activeCellId="1" sqref="B31:B82 B20:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1755</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1756</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1757</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1758</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1759</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1760</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1761</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1762</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1763</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1764</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1765</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1766</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1767</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1768</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1769</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1770</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1771</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1772</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1773</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1774</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1775</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1776</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1777</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1778</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1779</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1780</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1781</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1782</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1783</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1784</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1785</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1786</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1787</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1788</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1789</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1790</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1791</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1792</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1793</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1794</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1795</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1796</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1797</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1798</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1799</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1800</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1801</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1802</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1803</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1804</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1805</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1806</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1807</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1808</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1809</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1810</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1811</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1812</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1813</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1814</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1815</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1816</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1817</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1818</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1819</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1820</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1821</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1822</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1823</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1824</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1825</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1826</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1827</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1828</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1829</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1830</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1831</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1832</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1833</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1834</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1835</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EBCB07-6B4E-4DCC-A2ED-2A237A435B8A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,23 +1733,29 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -877,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6D39A-8162-48C0-8444-8140DAD53E39}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +1781,7 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +1794,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -912,8 +1808,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -923,8 +1822,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -936,6 +1838,9 @@
       </c>
       <c r="D4" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9802280-7071-47D4-AA4D-EEA7DD9C2C97}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +1863,7 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -977,8 +1882,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -988,8 +1896,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1005,8 +1916,11 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1022,8 +1936,11 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1041,6 +1958,9 @@
       </c>
       <c r="F5" t="s">
         <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1051,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7172DBA-6075-466A-AC8F-92175A2CE995}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1983,7 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1076,8 +1996,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1087,8 +2010,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1098,8 +2024,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1111,6 +2040,9 @@
       </c>
       <c r="D4" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F05573-A5E1-4E86-8A4F-4475CD26098F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +2068,7 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -1158,8 +2090,11 @@
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -1179,8 +2114,11 @@
       <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1200,8 +2138,11 @@
       <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1223,8 +2164,11 @@
       <c r="G4" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1246,8 +2190,11 @@
       <c r="G5" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -1267,8 +2214,11 @@
       <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1288,8 +2238,11 @@
       <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1309,8 +2262,11 @@
       <c r="G8" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1331,6 +2287,9 @@
       </c>
       <c r="G9" s="13" t="s">
         <v>4</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1346,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F93B3-0753-45B9-80E1-212386B213EB}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,10 +2322,10 @@
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="28"/>
+    <col min="11" max="11" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1394,14 +2353,17 @@
       <c r="I1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -1429,14 +2391,17 @@
       <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -1460,14 +2425,17 @@
       <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -1491,14 +2459,17 @@
       <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="26" t="s">
+      <c r="J4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -1522,45 +2493,51 @@
       <c r="I5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="L5" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="G6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -1584,14 +2561,17 @@
       <c r="I7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -1613,14 +2593,17 @@
       <c r="I8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -1644,14 +2627,17 @@
       <c r="I9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -1673,45 +2659,51 @@
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="L10" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1731,11 +2723,14 @@
       <c r="I12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="27" t="s">
         <v>65</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1750,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC65C5AD-3475-4492-97A7-C04D1EE102F1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,28 +2756,37 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1792,19 +2796,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C7130B-0321-450D-9D2E-9CBC564FD833}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1814,8 +2818,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1825,8 +2832,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1836,8 +2846,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1846,6 +2859,9 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Christi - Data Binding.xlsx
+++ b/Christi - Data Binding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\LearningManagementWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\LearningManagementWebs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0B0AB-763F-4F1F-B3DA-715EBC4DBC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B707BE-92E7-41CA-8AC2-BCAA38A5CD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" firstSheet="5" activeTab="11" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" firstSheet="10" activeTab="12" xr2:uid="{1D0504FE-B408-44BD-A9E7-7F1F2ED7EF33}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <sheet name="delete slider" sheetId="8" r:id="rId8"/>
     <sheet name="upload quiz" sheetId="9" r:id="rId9"/>
     <sheet name="upload pretest-posttest" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
-    <sheet name="delete test" sheetId="13" r:id="rId12"/>
+    <sheet name="User &amp; Admin" sheetId="12" r:id="rId11"/>
+    <sheet name="new module &amp; submodule" sheetId="15" r:id="rId12"/>
+    <sheet name="delete faq" sheetId="17" r:id="rId13"/>
+    <sheet name="edit" sheetId="14" r:id="rId14"/>
+    <sheet name="edit  module" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="204">
   <si>
     <t>search module</t>
   </si>
@@ -370,20 +373,299 @@
     <t>1m 7s</t>
   </si>
   <si>
-    <t>searchID</t>
-  </si>
-  <si>
-    <t>keterangan</t>
-  </si>
-  <si>
-    <t>kondisi</t>
+    <t>learning_code</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>module_category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>prerequisite</t>
+  </si>
+  <si>
+    <t>img_upload</t>
+  </si>
+  <si>
+    <t>expected_img_upload</t>
+  </si>
+  <si>
+    <t>New Module</t>
+  </si>
+  <si>
+    <t>Basic Training</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Content LMS\PNG_GENERAL Icon.png</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>search_by</t>
+  </si>
+  <si>
+    <t>type_search</t>
+  </si>
+  <si>
+    <t>expected_search</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>Level 2 - Coordinator Training</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Module 061520201</t>
+  </si>
+  <si>
+    <t>Module 061520202</t>
+  </si>
+  <si>
+    <t>lorem ipsum</t>
+  </si>
+  <si>
+    <t>Module 061520203</t>
+  </si>
+  <si>
+    <t>submodule_name</t>
+  </si>
+  <si>
+    <t>create_module_expected</t>
+  </si>
+  <si>
+    <t>section_name</t>
+  </si>
+  <si>
+    <t>section_order</t>
+  </si>
+  <si>
+    <t>section_time</t>
+  </si>
+  <si>
+    <t>create_submodule_expected</t>
+  </si>
+  <si>
+    <t>section one</t>
+  </si>
+  <si>
+    <t>section two</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Submodule</t>
+  </si>
+  <si>
+    <t>Submodule 061520202</t>
+  </si>
+  <si>
+    <t>section_file_upload</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\git\LearningManagementWeb\konten lms\01. Lemon Rules.pdf</t>
+  </si>
+  <si>
+    <t>‪C:\Users\ASUS\git\LearningManagementWeb\konten lms\01. Pengantar Basic Training.mp4</t>
+  </si>
+  <si>
+    <t>Module 061520204</t>
+  </si>
+  <si>
+    <t>search_module</t>
+  </si>
+  <si>
+    <t>module name</t>
+  </si>
+  <si>
+    <t>learning code</t>
+  </si>
+  <si>
+    <t>course name</t>
+  </si>
+  <si>
+    <t>module category</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>submodule name</t>
+  </si>
+  <si>
+    <t>section name</t>
+  </si>
+  <si>
+    <t>section order</t>
+  </si>
+  <si>
+    <t>section time</t>
+  </si>
+  <si>
+    <t>SALES HEAD</t>
+  </si>
+  <si>
+    <t>Coordinator up</t>
+  </si>
+  <si>
+    <t>edit desc</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>section_format</t>
+  </si>
+  <si>
+    <t>section format</t>
+  </si>
+  <si>
+    <t>Sub module xx</t>
+  </si>
+  <si>
+    <t>section xx</t>
+  </si>
+  <si>
+    <t>‪C:\Users\ASUS\git\LearningManagementWeb\konten lms\PNG_UW Icon .png</t>
+  </si>
+  <si>
+    <t>Level 3 - Head Training</t>
+  </si>
+  <si>
+    <t>Level 4 - Branch Manager Training</t>
+  </si>
+  <si>
+    <t>Level 5 - Division Training</t>
+  </si>
+  <si>
+    <t>Level 6 - Regional Training</t>
+  </si>
+  <si>
+    <t>Level 7 - Chief Training</t>
+  </si>
+  <si>
+    <t>Level 8 - CEO Training</t>
+  </si>
+  <si>
+    <t>BRANCH UNDERWRITING HEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR MANAGEMENT HEAD </t>
+  </si>
+  <si>
+    <t>SERVICE HEAD</t>
+  </si>
+  <si>
+    <t>DESKCOLL COORDINATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECOVERY MANAGEMENT HEAD </t>
+  </si>
+  <si>
+    <t>FINANCE &amp; BANKING OFFICER</t>
+  </si>
+  <si>
+    <t>OPERATION HEAD</t>
+  </si>
+  <si>
+    <t>CUSTOMER SERVICE OFFICER</t>
+  </si>
+  <si>
+    <t>SURVEYOR HEAD</t>
+  </si>
+  <si>
+    <t>New Employee Orientation Program</t>
+  </si>
+  <si>
+    <t>General Knowledge</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>New Module X</t>
+  </si>
+  <si>
+    <t>VIDEO</t>
+  </si>
+  <si>
+    <t>QUIZ</t>
+  </si>
+  <si>
+    <t>Submodule 061520203</t>
+  </si>
+  <si>
+    <t>Submodule 061520204</t>
+  </si>
+  <si>
+    <t>section three</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>new_submodule</t>
+  </si>
+  <si>
+    <t>var_search</t>
+  </si>
+  <si>
+    <t>expected_delete</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>question14</t>
+  </si>
+  <si>
+    <t>answer14</t>
+  </si>
+  <si>
+    <t>cancel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +698,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,6 +825,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -988,7 +1285,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,674 +1341,1414 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F20AF2B-39BE-4463-B573-4D2A75D5EAFA}">
-  <dimension ref="A1:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAF8056-653C-4054-B3C3-E497E037C383}">
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" activeCellId="1" sqref="B31:B82 B20:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>300</v>
+      </c>
+      <c r="T11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" t="s">
+        <v>145</v>
+      </c>
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>148</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>690</v>
+      </c>
+      <c r="T12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" t="s">
+        <v>129</v>
+      </c>
+      <c r="V12" t="s">
+        <v>133</v>
+      </c>
+      <c r="W12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>148</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>690</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>129</v>
+      </c>
+      <c r="V13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EF164D-8FEA-4049-BFB2-F4BD44E61E80}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE83CA42-3BCF-43C6-8CB3-3565ACEF695D}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4">
+        <v>101</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1755</v>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+      <c r="U5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="U8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
+      <c r="U9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34">
+        <v>1</v>
+      </c>
+      <c r="T13" s="34">
+        <v>180</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30">
+        <v>2</v>
+      </c>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30">
+        <v>600</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4B7E34-FBD6-4990-B585-5AF3A2550AC8}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1756</v>
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1757</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1758</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4">
+        <v>101</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1759</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1760</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1761</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1762</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1763</v>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1764</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1765</v>
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1766</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1767</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1768</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1769</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1770</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1771</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1772</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1773</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1774</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1775</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1776</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1777</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1778</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1779</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1780</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1781</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1782</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1783</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1784</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1785</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1786</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1787</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1788</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1789</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1790</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1791</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1792</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1793</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1794</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1795</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1796</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1797</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1798</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1799</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1800</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1801</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1802</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1803</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1804</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1805</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1806</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1807</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1808</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1809</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1810</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1811</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1812</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1813</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1814</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1815</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1816</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1817</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1818</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1819</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1820</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1821</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1822</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1823</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1824</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1825</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1826</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1827</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1828</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1829</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1830</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1831</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1832</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1833</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1834</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1835</v>
-      </c>
-      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
         <v>4</v>
       </c>
     </row>
